--- a/Zeus/data/TSP/Results/test8.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/test8.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.512773641E9</v>
+        <v>-1.512782999E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
